--- a/191/191/191.xlsx
+++ b/191/191/191.xlsx
@@ -1431,8 +1431,8 @@
   <dimension ref="A1:I1652"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1243" sqref="G1243:G1247"/>
+      <pane ySplit="1" topLeftCell="A1640" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1647" sqref="I1647:I1652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1443,7 @@
     <col min="4" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="5.140625" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
     <col min="9" max="9" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1899,7 +1899,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="2">
         <v>6</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1937,7 +1937,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1948,7 +1948,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2134,7 +2134,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="2">
         <v>9</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2172,7 +2172,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2183,7 +2183,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2369,7 +2369,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="2">
         <v>12</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2407,7 +2407,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2418,7 +2418,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3153,7 +3153,7 @@
       <c r="H124" s="4"/>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="2">
         <v>21</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3202,7 +3202,7 @@
       <c r="H127" s="4"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3273,7 +3273,7 @@
       <c r="H132" s="4"/>
       <c r="I132" s="5"/>
     </row>
-    <row r="133" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3344,7 +3344,7 @@
       <c r="H137" s="4"/>
       <c r="I137" s="5"/>
     </row>
-    <row r="138" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3355,7 +3355,7 @@
       <c r="H138" s="4"/>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3415,7 +3415,7 @@
       <c r="H142" s="4"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3426,7 +3426,7 @@
       <c r="H143" s="4"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3486,7 +3486,7 @@
       <c r="H147" s="4"/>
       <c r="I147" s="5"/>
     </row>
-    <row r="148" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3497,7 +3497,7 @@
       <c r="H148" s="4"/>
       <c r="I148" s="5"/>
     </row>
-    <row r="149" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3521,7 +3521,7 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="2">
         <v>26</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3559,7 +3559,7 @@
       <c r="H152" s="4"/>
       <c r="I152" s="5"/>
     </row>
-    <row r="153" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3570,7 +3570,7 @@
       <c r="H153" s="4"/>
       <c r="I153" s="5"/>
     </row>
-    <row r="154" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3581,7 +3581,7 @@
       <c r="H154" s="4"/>
       <c r="I154" s="5"/>
     </row>
-    <row r="155" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3630,7 +3630,7 @@
       <c r="H157" s="4"/>
       <c r="I157" s="5"/>
     </row>
-    <row r="158" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3641,7 +3641,7 @@
       <c r="H158" s="4"/>
       <c r="I158" s="5"/>
     </row>
-    <row r="159" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3652,7 +3652,7 @@
       <c r="H159" s="4"/>
       <c r="I159" s="5"/>
     </row>
-    <row r="160" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3701,7 +3701,7 @@
       <c r="H162" s="4"/>
       <c r="I162" s="5"/>
     </row>
-    <row r="163" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3712,7 +3712,7 @@
       <c r="H163" s="4"/>
       <c r="I163" s="5"/>
     </row>
-    <row r="164" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3723,7 +3723,7 @@
       <c r="H164" s="4"/>
       <c r="I164" s="5"/>
     </row>
-    <row r="165" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3772,7 +3772,7 @@
       <c r="H167" s="4"/>
       <c r="I167" s="5"/>
     </row>
-    <row r="168" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3783,7 +3783,7 @@
       <c r="H168" s="4"/>
       <c r="I168" s="5"/>
     </row>
-    <row r="169" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3794,7 +3794,7 @@
       <c r="H169" s="4"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -4215,7 +4215,7 @@
       <c r="H200" s="4"/>
       <c r="I200" s="5"/>
     </row>
-    <row r="201" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="2">
         <v>35</v>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4253,7 +4253,7 @@
       <c r="H202" s="4"/>
       <c r="I202" s="5"/>
     </row>
-    <row r="203" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -4264,7 +4264,7 @@
       <c r="H203" s="4"/>
       <c r="I203" s="5"/>
     </row>
-    <row r="204" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -4275,7 +4275,7 @@
       <c r="H204" s="4"/>
       <c r="I204" s="5"/>
     </row>
-    <row r="205" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -4324,7 +4324,7 @@
       <c r="H207" s="4"/>
       <c r="I207" s="5"/>
     </row>
-    <row r="208" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -4335,7 +4335,7 @@
       <c r="H208" s="4"/>
       <c r="I208" s="5"/>
     </row>
-    <row r="209" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -4346,7 +4346,7 @@
       <c r="H209" s="4"/>
       <c r="I209" s="5"/>
     </row>
-    <row r="210" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -4395,7 +4395,7 @@
       <c r="H212" s="4"/>
       <c r="I212" s="5"/>
     </row>
-    <row r="213" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -4406,7 +4406,7 @@
       <c r="H213" s="4"/>
       <c r="I213" s="5"/>
     </row>
-    <row r="214" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -4417,7 +4417,7 @@
       <c r="H214" s="4"/>
       <c r="I214" s="5"/>
     </row>
-    <row r="215" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -4510,7 +4510,7 @@
       <c r="H221" s="4"/>
       <c r="I221" s="5"/>
     </row>
-    <row r="222" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="2">
         <v>39</v>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -4559,7 +4559,7 @@
       <c r="H224" s="4"/>
       <c r="I224" s="5"/>
     </row>
-    <row r="225" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -4570,7 +4570,7 @@
       <c r="H225" s="4"/>
       <c r="I225" s="5"/>
     </row>
-    <row r="226" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -4630,7 +4630,7 @@
       <c r="H229" s="4"/>
       <c r="I229" s="5"/>
     </row>
-    <row r="230" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -4641,7 +4641,7 @@
       <c r="H230" s="4"/>
       <c r="I230" s="5"/>
     </row>
-    <row r="231" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -4734,7 +4734,7 @@
       <c r="H237" s="4"/>
       <c r="I237" s="5"/>
     </row>
-    <row r="238" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="2">
         <v>42</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -4772,7 +4772,7 @@
       <c r="H239" s="4"/>
       <c r="I239" s="5"/>
     </row>
-    <row r="240" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -4783,7 +4783,7 @@
       <c r="H240" s="4"/>
       <c r="I240" s="5"/>
     </row>
-    <row r="241" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -4794,7 +4794,7 @@
       <c r="H241" s="4"/>
       <c r="I241" s="5"/>
     </row>
-    <row r="242" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -5051,7 +5051,7 @@
       <c r="H260" s="4"/>
       <c r="I260" s="5"/>
     </row>
-    <row r="261" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="2">
         <v>46</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -5089,7 +5089,7 @@
       <c r="H262" s="4"/>
       <c r="I262" s="5"/>
     </row>
-    <row r="263" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -5100,7 +5100,7 @@
       <c r="H263" s="4"/>
       <c r="I263" s="5"/>
     </row>
-    <row r="264" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -5111,7 +5111,7 @@
       <c r="H264" s="4"/>
       <c r="I264" s="5"/>
     </row>
-    <row r="265" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -5160,7 +5160,7 @@
       <c r="H267" s="4"/>
       <c r="I267" s="5"/>
     </row>
-    <row r="268" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -5171,7 +5171,7 @@
       <c r="H268" s="4"/>
       <c r="I268" s="5"/>
     </row>
-    <row r="269" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -5182,7 +5182,7 @@
       <c r="H269" s="4"/>
       <c r="I269" s="5"/>
     </row>
-    <row r="270" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -5219,7 +5219,7 @@
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
     </row>
-    <row r="273" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="2">
         <v>48</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -5268,7 +5268,7 @@
       <c r="H275" s="4"/>
       <c r="I275" s="5"/>
     </row>
-    <row r="276" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -5372,7 +5372,7 @@
       <c r="H283" s="4"/>
       <c r="I283" s="5"/>
     </row>
-    <row r="284" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="2">
         <v>50</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -5410,7 +5410,7 @@
       <c r="H285" s="4"/>
       <c r="I285" s="5"/>
     </row>
-    <row r="286" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -5421,7 +5421,7 @@
       <c r="H286" s="4"/>
       <c r="I286" s="5"/>
     </row>
-    <row r="287" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -5525,7 +5525,7 @@
       <c r="H294" s="4"/>
       <c r="I294" s="5"/>
     </row>
-    <row r="295" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="2">
         <v>52</v>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -5574,7 +5574,7 @@
       <c r="H297" s="4"/>
       <c r="I297" s="5"/>
     </row>
-    <row r="298" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -5645,7 +5645,7 @@
       <c r="H302" s="4"/>
       <c r="I302" s="5"/>
     </row>
-    <row r="303" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -5749,7 +5749,7 @@
       <c r="H310" s="4"/>
       <c r="I310" s="5"/>
     </row>
-    <row r="311" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="2">
         <v>55</v>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -5798,7 +5798,7 @@
       <c r="H313" s="4"/>
       <c r="I313" s="5"/>
     </row>
-    <row r="314" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -6981,7 +6981,7 @@
       <c r="H400" s="4"/>
       <c r="I400" s="5"/>
     </row>
-    <row r="401" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="2">
         <v>70</v>
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -7019,7 +7019,7 @@
       <c r="H402" s="4"/>
       <c r="I402" s="5"/>
     </row>
-    <row r="403" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -7030,7 +7030,7 @@
       <c r="H403" s="4"/>
       <c r="I403" s="5"/>
     </row>
-    <row r="404" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -7063,7 +7063,7 @@
       <c r="H406" s="4"/>
       <c r="I406" s="5"/>
     </row>
-    <row r="407" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -7074,7 +7074,7 @@
       <c r="H407" s="4"/>
       <c r="I407" s="5"/>
     </row>
-    <row r="408" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -7085,7 +7085,7 @@
       <c r="H408" s="4"/>
       <c r="I408" s="5"/>
     </row>
-    <row r="409" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -7096,7 +7096,7 @@
       <c r="H409" s="4"/>
       <c r="I409" s="5"/>
     </row>
-    <row r="410" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -7189,7 +7189,7 @@
       <c r="H416" s="4"/>
       <c r="I416" s="5"/>
     </row>
-    <row r="417" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="2">
         <v>72</v>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -7238,7 +7238,7 @@
       <c r="H419" s="4"/>
       <c r="I419" s="5"/>
     </row>
-    <row r="420" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -7249,7 +7249,7 @@
       <c r="H420" s="4"/>
       <c r="I420" s="5"/>
     </row>
-    <row r="421" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -7309,7 +7309,7 @@
       <c r="H424" s="4"/>
       <c r="I424" s="5"/>
     </row>
-    <row r="425" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -7320,7 +7320,7 @@
       <c r="H425" s="4"/>
       <c r="I425" s="5"/>
     </row>
-    <row r="426" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -7931,7 +7931,7 @@
       <c r="H470" s="4"/>
       <c r="I470" s="5"/>
     </row>
-    <row r="471" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="2">
         <v>81</v>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -7969,7 +7969,7 @@
       <c r="H472" s="4"/>
       <c r="I472" s="5"/>
     </row>
-    <row r="473" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -7980,7 +7980,7 @@
       <c r="H473" s="4"/>
       <c r="I473" s="5"/>
     </row>
-    <row r="474" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -8356,7 +8356,7 @@
       <c r="H501" s="2"/>
       <c r="I501" s="2"/>
     </row>
-    <row r="502" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="2">
         <v>86</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -8405,7 +8405,7 @@
       <c r="H504" s="4"/>
       <c r="I504" s="5"/>
     </row>
-    <row r="505" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -9493,7 +9493,7 @@
       <c r="H584" s="4"/>
       <c r="I584" s="5"/>
     </row>
-    <row r="585" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="2">
         <v>100</v>
@@ -9520,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -9531,7 +9531,7 @@
       <c r="H586" s="4"/>
       <c r="I586" s="5"/>
     </row>
-    <row r="587" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -9542,7 +9542,7 @@
       <c r="H587" s="4"/>
       <c r="I587" s="5"/>
     </row>
-    <row r="588" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -9672,7 +9672,7 @@
       <c r="H597" s="4"/>
       <c r="I597" s="5"/>
     </row>
-    <row r="598" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="2">
         <v>102</v>
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -9710,7 +9710,7 @@
       <c r="H599" s="4"/>
       <c r="I599" s="5"/>
     </row>
-    <row r="600" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -9721,7 +9721,7 @@
       <c r="H600" s="4"/>
       <c r="I600" s="5"/>
     </row>
-    <row r="601" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -10235,7 +10235,7 @@
       <c r="H638" s="4"/>
       <c r="I638" s="5"/>
     </row>
-    <row r="639" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="2">
         <v>109</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -10284,7 +10284,7 @@
       <c r="H641" s="4"/>
       <c r="I641" s="5"/>
     </row>
-    <row r="642" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -10634,7 +10634,7 @@
       <c r="H667" s="4"/>
       <c r="I667" s="5"/>
     </row>
-    <row r="668" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="2">
         <v>114</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -10672,7 +10672,7 @@
       <c r="H669" s="4"/>
       <c r="I669" s="5"/>
     </row>
-    <row r="670" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -10787,7 +10787,7 @@
       <c r="H678" s="4"/>
       <c r="I678" s="5"/>
     </row>
-    <row r="679" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="2">
         <v>116</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -10825,7 +10825,7 @@
       <c r="H680" s="4"/>
       <c r="I680" s="5"/>
     </row>
-    <row r="681" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -10836,7 +10836,7 @@
       <c r="H681" s="4"/>
       <c r="I681" s="5"/>
     </row>
-    <row r="682" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -10896,7 +10896,7 @@
       <c r="H685" s="4"/>
       <c r="I685" s="5"/>
     </row>
-    <row r="686" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -10907,7 +10907,7 @@
       <c r="H686" s="4"/>
       <c r="I686" s="5"/>
     </row>
-    <row r="687" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -10967,7 +10967,7 @@
       <c r="H690" s="4"/>
       <c r="I690" s="5"/>
     </row>
-    <row r="691" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -10978,7 +10978,7 @@
       <c r="H691" s="4"/>
       <c r="I691" s="5"/>
     </row>
-    <row r="692" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -11027,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -11038,7 +11038,7 @@
       <c r="H695" s="4"/>
       <c r="I695" s="5"/>
     </row>
-    <row r="696" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -11049,7 +11049,7 @@
       <c r="H696" s="4"/>
       <c r="I696" s="5"/>
     </row>
-    <row r="697" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -11481,7 +11481,7 @@
       <c r="H728" s="4"/>
       <c r="I728" s="5"/>
     </row>
-    <row r="729" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
       <c r="B729" s="2">
         <v>125</v>
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -11519,7 +11519,7 @@
       <c r="H730" s="4"/>
       <c r="I730" s="5"/>
     </row>
-    <row r="731" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -11530,7 +11530,7 @@
       <c r="H731" s="4"/>
       <c r="I731" s="5"/>
     </row>
-    <row r="732" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -12050,7 +12050,7 @@
       <c r="H771" s="4"/>
       <c r="I771" s="5"/>
     </row>
-    <row r="772" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="2">
         <v>131</v>
@@ -12077,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -12088,7 +12088,7 @@
       <c r="H773" s="4"/>
       <c r="I773" s="5"/>
     </row>
-    <row r="774" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -12099,7 +12099,7 @@
       <c r="H774" s="4"/>
       <c r="I774" s="5"/>
     </row>
-    <row r="775" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -12159,7 +12159,7 @@
       <c r="H778" s="4"/>
       <c r="I778" s="5"/>
     </row>
-    <row r="779" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -12170,7 +12170,7 @@
       <c r="H779" s="4"/>
       <c r="I779" s="5"/>
     </row>
-    <row r="780" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -12219,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -12230,7 +12230,7 @@
       <c r="H783" s="4"/>
       <c r="I783" s="5"/>
     </row>
-    <row r="784" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -12241,7 +12241,7 @@
       <c r="H784" s="4"/>
       <c r="I784" s="5"/>
     </row>
-    <row r="785" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -12290,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -12301,7 +12301,7 @@
       <c r="H788" s="4"/>
       <c r="I788" s="5"/>
     </row>
-    <row r="789" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -12312,7 +12312,7 @@
       <c r="H789" s="4"/>
       <c r="I789" s="5"/>
     </row>
-    <row r="790" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -12361,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -12372,7 +12372,7 @@
       <c r="H793" s="4"/>
       <c r="I793" s="5"/>
     </row>
-    <row r="794" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -12383,7 +12383,7 @@
       <c r="H794" s="4"/>
       <c r="I794" s="5"/>
     </row>
-    <row r="795" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -12443,7 +12443,7 @@
       <c r="H798" s="4"/>
       <c r="I798" s="5"/>
     </row>
-    <row r="799" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -12454,7 +12454,7 @@
       <c r="H799" s="4"/>
       <c r="I799" s="5"/>
     </row>
-    <row r="800" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -12514,7 +12514,7 @@
       <c r="H803" s="4"/>
       <c r="I803" s="5"/>
     </row>
-    <row r="804" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -12525,7 +12525,7 @@
       <c r="H804" s="4"/>
       <c r="I804" s="5"/>
     </row>
-    <row r="805" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -12585,7 +12585,7 @@
       <c r="H808" s="4"/>
       <c r="I808" s="5"/>
     </row>
-    <row r="809" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -12596,7 +12596,7 @@
       <c r="H809" s="4"/>
       <c r="I809" s="5"/>
     </row>
-    <row r="810" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -12700,7 +12700,7 @@
       <c r="H817" s="4"/>
       <c r="I817" s="5"/>
     </row>
-    <row r="818" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
       <c r="B818" s="2">
         <v>140</v>
@@ -12727,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -12738,7 +12738,7 @@
       <c r="H819" s="4"/>
       <c r="I819" s="5"/>
     </row>
-    <row r="820" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -12749,7 +12749,7 @@
       <c r="H820" s="4"/>
       <c r="I820" s="5"/>
     </row>
-    <row r="821" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -12798,7 +12798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -12809,7 +12809,7 @@
       <c r="H824" s="4"/>
       <c r="I824" s="5"/>
     </row>
-    <row r="825" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -12820,7 +12820,7 @@
       <c r="H825" s="4"/>
       <c r="I825" s="5"/>
     </row>
-    <row r="826" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -12924,7 +12924,7 @@
       <c r="H833" s="4"/>
       <c r="I833" s="5"/>
     </row>
-    <row r="834" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
       <c r="B834" s="2">
         <v>143</v>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -12962,7 +12962,7 @@
       <c r="H835" s="4"/>
       <c r="I835" s="5"/>
     </row>
-    <row r="836" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -12973,7 +12973,7 @@
       <c r="H836" s="4"/>
       <c r="I836" s="5"/>
     </row>
-    <row r="837" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -13077,7 +13077,7 @@
       <c r="H844" s="4"/>
       <c r="I844" s="5"/>
     </row>
-    <row r="845" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="2">
         <v>145</v>
@@ -13104,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -13115,7 +13115,7 @@
       <c r="H846" s="4"/>
       <c r="I846" s="5"/>
     </row>
-    <row r="847" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -13126,7 +13126,7 @@
       <c r="H847" s="4"/>
       <c r="I847" s="5"/>
     </row>
-    <row r="848" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -13476,7 +13476,7 @@
       <c r="H873" s="4"/>
       <c r="I873" s="5"/>
     </row>
-    <row r="874" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
       <c r="B874" s="2">
         <v>150</v>
@@ -13503,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -13514,7 +13514,7 @@
       <c r="H875" s="4"/>
       <c r="I875" s="5"/>
     </row>
-    <row r="876" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -13525,7 +13525,7 @@
       <c r="H876" s="4"/>
       <c r="I876" s="5"/>
     </row>
-    <row r="877" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -13536,7 +13536,7 @@
       <c r="H877" s="4"/>
       <c r="I877" s="5"/>
     </row>
-    <row r="878" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -13585,7 +13585,7 @@
       <c r="H880" s="4"/>
       <c r="I880" s="5"/>
     </row>
-    <row r="881" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -13596,7 +13596,7 @@
       <c r="H881" s="4"/>
       <c r="I881" s="5"/>
     </row>
-    <row r="882" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -13645,7 +13645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -13656,7 +13656,7 @@
       <c r="H885" s="4"/>
       <c r="I885" s="5"/>
     </row>
-    <row r="886" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -13667,7 +13667,7 @@
       <c r="H886" s="4"/>
       <c r="I886" s="5"/>
     </row>
-    <row r="887" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -13678,7 +13678,7 @@
       <c r="H887" s="4"/>
       <c r="I887" s="5"/>
     </row>
-    <row r="888" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -13738,7 +13738,7 @@
       <c r="H891" s="4"/>
       <c r="I891" s="5"/>
     </row>
-    <row r="892" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -13842,7 +13842,7 @@
       <c r="H899" s="4"/>
       <c r="I899" s="5"/>
     </row>
-    <row r="900" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
       <c r="B900" s="2">
         <v>155</v>
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -13891,7 +13891,7 @@
       <c r="H902" s="4"/>
       <c r="I902" s="5"/>
     </row>
-    <row r="903" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -14405,7 +14405,7 @@
       <c r="H940" s="4"/>
       <c r="I940" s="5"/>
     </row>
-    <row r="941" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="2">
         <v>162</v>
@@ -14432,7 +14432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -14454,7 +14454,7 @@
       <c r="H943" s="4"/>
       <c r="I943" s="5"/>
     </row>
-    <row r="944" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -14722,7 +14722,7 @@
       <c r="H963" s="4"/>
       <c r="I963" s="5"/>
     </row>
-    <row r="964" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
       <c r="B964" s="2">
         <v>166</v>
@@ -14749,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -14760,7 +14760,7 @@
       <c r="H965" s="4"/>
       <c r="I965" s="5"/>
     </row>
-    <row r="966" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -14771,7 +14771,7 @@
       <c r="H966" s="4"/>
       <c r="I966" s="5"/>
     </row>
-    <row r="967" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -14820,7 +14820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -14831,7 +14831,7 @@
       <c r="H970" s="4"/>
       <c r="I970" s="5"/>
     </row>
-    <row r="971" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -14842,7 +14842,7 @@
       <c r="H971" s="4"/>
       <c r="I971" s="5"/>
     </row>
-    <row r="972" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -14946,7 +14946,7 @@
       <c r="H979" s="4"/>
       <c r="I979" s="5"/>
     </row>
-    <row r="980" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
       <c r="B980" s="2">
         <v>169</v>
@@ -14973,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -14984,7 +14984,7 @@
       <c r="H981" s="4"/>
       <c r="I981" s="5"/>
     </row>
-    <row r="982" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -14995,7 +14995,7 @@
       <c r="H982" s="4"/>
       <c r="I982" s="5"/>
     </row>
-    <row r="983" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -15181,7 +15181,7 @@
       <c r="H996" s="4"/>
       <c r="I996" s="5"/>
     </row>
-    <row r="997" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
       <c r="B997" s="2">
         <v>172</v>
@@ -15208,7 +15208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -15219,7 +15219,7 @@
       <c r="H998" s="4"/>
       <c r="I998" s="5"/>
     </row>
-    <row r="999" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A999" s="3"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -15230,7 +15230,7 @@
       <c r="H999" s="4"/>
       <c r="I999" s="5"/>
     </row>
-    <row r="1000" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1000" s="3"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -15279,7 +15279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1003" s="3"/>
       <c r="B1003" s="2"/>
       <c r="C1003" s="2"/>
@@ -15290,7 +15290,7 @@
       <c r="H1003" s="4"/>
       <c r="I1003" s="5"/>
     </row>
-    <row r="1004" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1004" s="3"/>
       <c r="B1004" s="2"/>
       <c r="C1004" s="2"/>
@@ -15301,7 +15301,7 @@
       <c r="H1004" s="4"/>
       <c r="I1004" s="5"/>
     </row>
-    <row r="1005" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1005" s="3"/>
       <c r="B1005" s="2"/>
       <c r="C1005" s="2"/>
@@ -15979,7 +15979,7 @@
       <c r="H1054" s="4"/>
       <c r="I1054" s="5"/>
     </row>
-    <row r="1055" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1055" s="3"/>
       <c r="B1055" s="2">
         <v>182</v>
@@ -16006,7 +16006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1056" s="3"/>
       <c r="B1056" s="2"/>
       <c r="C1056" s="2"/>
@@ -16017,7 +16017,7 @@
       <c r="H1056" s="4"/>
       <c r="I1056" s="5"/>
     </row>
-    <row r="1057" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1057" s="3"/>
       <c r="B1057" s="2"/>
       <c r="C1057" s="2"/>
@@ -16028,7 +16028,7 @@
       <c r="H1057" s="4"/>
       <c r="I1057" s="5"/>
     </row>
-    <row r="1058" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1058" s="3"/>
       <c r="B1058" s="2"/>
       <c r="C1058" s="2"/>
@@ -16077,7 +16077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1061" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1061" s="3"/>
       <c r="B1061" s="2"/>
       <c r="C1061" s="2"/>
@@ -16088,7 +16088,7 @@
       <c r="H1061" s="4"/>
       <c r="I1061" s="5"/>
     </row>
-    <row r="1062" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1062" s="3"/>
       <c r="B1062" s="2"/>
       <c r="C1062" s="2"/>
@@ -16099,7 +16099,7 @@
       <c r="H1062" s="4"/>
       <c r="I1062" s="5"/>
     </row>
-    <row r="1063" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1063" s="3"/>
       <c r="B1063" s="2"/>
       <c r="C1063" s="2"/>
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1066" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1066" s="3"/>
       <c r="B1066" s="2"/>
       <c r="C1066" s="2"/>
@@ -16159,7 +16159,7 @@
       <c r="H1066" s="4"/>
       <c r="I1066" s="5"/>
     </row>
-    <row r="1067" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1067" s="3"/>
       <c r="B1067" s="2"/>
       <c r="C1067" s="2"/>
@@ -16170,7 +16170,7 @@
       <c r="H1067" s="4"/>
       <c r="I1067" s="5"/>
     </row>
-    <row r="1068" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1068" s="3"/>
       <c r="B1068" s="2"/>
       <c r="C1068" s="2"/>
@@ -16602,7 +16602,7 @@
       <c r="H1099" s="4"/>
       <c r="I1099" s="5"/>
     </row>
-    <row r="1100" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1100" s="3"/>
       <c r="B1100" s="2">
         <v>190</v>
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1101" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1101" s="3"/>
       <c r="B1101" s="2"/>
       <c r="C1101" s="2"/>
@@ -16640,7 +16640,7 @@
       <c r="H1101" s="4"/>
       <c r="I1101" s="5"/>
     </row>
-    <row r="1102" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1102" s="3"/>
       <c r="B1102" s="2"/>
       <c r="C1102" s="2"/>
@@ -16837,7 +16837,7 @@
       <c r="H1116" s="4"/>
       <c r="I1116" s="5"/>
     </row>
-    <row r="1117" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1117" s="3"/>
       <c r="B1117" s="2">
         <v>193</v>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1118" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1118" s="3"/>
       <c r="B1118" s="2"/>
       <c r="C1118" s="2"/>
@@ -16875,7 +16875,7 @@
       <c r="H1118" s="4"/>
       <c r="I1118" s="5"/>
     </row>
-    <row r="1119" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1119" s="3"/>
       <c r="B1119" s="2"/>
       <c r="C1119" s="2"/>
@@ -16886,7 +16886,7 @@
       <c r="H1119" s="4"/>
       <c r="I1119" s="5"/>
     </row>
-    <row r="1120" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1120" s="3"/>
       <c r="B1120" s="2"/>
       <c r="C1120" s="2"/>
@@ -16990,7 +16990,7 @@
       <c r="H1127" s="4"/>
       <c r="I1127" s="5"/>
     </row>
-    <row r="1128" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1128" s="3"/>
       <c r="B1128" s="2">
         <v>195</v>
@@ -17017,7 +17017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1129" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1129" s="3"/>
       <c r="B1129" s="2"/>
       <c r="C1129" s="2"/>
@@ -17028,7 +17028,7 @@
       <c r="H1129" s="4"/>
       <c r="I1129" s="5"/>
     </row>
-    <row r="1130" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1130" s="3"/>
       <c r="B1130" s="2"/>
       <c r="C1130" s="2"/>
@@ -17039,7 +17039,7 @@
       <c r="H1130" s="4"/>
       <c r="I1130" s="5"/>
     </row>
-    <row r="1131" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1131" s="3"/>
       <c r="B1131" s="2"/>
       <c r="C1131" s="2"/>
@@ -17143,7 +17143,7 @@
       <c r="H1138" s="4"/>
       <c r="I1138" s="5"/>
     </row>
-    <row r="1139" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1139" s="3"/>
       <c r="B1139" s="2">
         <v>197</v>
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1140" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1140" s="3"/>
       <c r="B1140" s="2"/>
       <c r="C1140" s="2"/>
@@ -17181,7 +17181,7 @@
       <c r="H1140" s="4"/>
       <c r="I1140" s="5"/>
     </row>
-    <row r="1141" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1141" s="3"/>
       <c r="B1141" s="2"/>
       <c r="C1141" s="2"/>
@@ -17192,7 +17192,7 @@
       <c r="H1141" s="4"/>
       <c r="I1141" s="5"/>
     </row>
-    <row r="1142" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1142" s="3"/>
       <c r="B1142" s="2"/>
       <c r="C1142" s="2"/>
@@ -18116,7 +18116,7 @@
       <c r="H1209" s="4"/>
       <c r="I1209" s="5"/>
     </row>
-    <row r="1210" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1210" s="3"/>
       <c r="B1210" s="2">
         <v>209</v>
@@ -18143,7 +18143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1211" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1211" s="3"/>
       <c r="B1211" s="2"/>
       <c r="C1211" s="2"/>
@@ -18154,7 +18154,7 @@
       <c r="H1211" s="4"/>
       <c r="I1211" s="5"/>
     </row>
-    <row r="1212" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1212" s="3"/>
       <c r="B1212" s="2"/>
       <c r="C1212" s="2"/>
@@ -18165,7 +18165,7 @@
       <c r="H1212" s="4"/>
       <c r="I1212" s="5"/>
     </row>
-    <row r="1213" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1213" s="3"/>
       <c r="B1213" s="2"/>
       <c r="C1213" s="2"/>
@@ -18214,7 +18214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1216" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1216" s="3"/>
       <c r="B1216" s="2"/>
       <c r="C1216" s="2"/>
@@ -18225,7 +18225,7 @@
       <c r="H1216" s="4"/>
       <c r="I1216" s="5"/>
     </row>
-    <row r="1217" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1217" s="3"/>
       <c r="B1217" s="2"/>
       <c r="C1217" s="2"/>
@@ -18236,7 +18236,7 @@
       <c r="H1217" s="4"/>
       <c r="I1217" s="5"/>
     </row>
-    <row r="1218" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1218" s="3"/>
       <c r="B1218" s="2"/>
       <c r="C1218" s="2"/>
@@ -18504,7 +18504,7 @@
       <c r="H1237" s="4"/>
       <c r="I1237" s="5"/>
     </row>
-    <row r="1238" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1238" s="3"/>
       <c r="B1238" s="2">
         <v>214</v>
@@ -18531,7 +18531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1239" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1239" s="3"/>
       <c r="B1239" s="2"/>
       <c r="C1239" s="2"/>
@@ -18542,7 +18542,7 @@
       <c r="H1239" s="4"/>
       <c r="I1239" s="5"/>
     </row>
-    <row r="1240" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1240" s="3"/>
       <c r="B1240" s="2"/>
       <c r="C1240" s="2"/>
@@ -18553,7 +18553,7 @@
       <c r="H1240" s="4"/>
       <c r="I1240" s="5"/>
     </row>
-    <row r="1241" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1241" s="3"/>
       <c r="B1241" s="2"/>
       <c r="C1241" s="2"/>
@@ -18602,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1244" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1244" s="3"/>
       <c r="B1244" s="2"/>
       <c r="C1244" s="2"/>
@@ -18613,7 +18613,7 @@
       <c r="H1244" s="4"/>
       <c r="I1244" s="5"/>
     </row>
-    <row r="1245" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1245" s="3"/>
       <c r="B1245" s="2"/>
       <c r="C1245" s="2"/>
@@ -18624,7 +18624,7 @@
       <c r="H1245" s="4"/>
       <c r="I1245" s="5"/>
     </row>
-    <row r="1246" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1246" s="3"/>
       <c r="B1246" s="2"/>
       <c r="C1246" s="2"/>
@@ -18673,7 +18673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1249" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1249" s="3"/>
       <c r="B1249" s="2"/>
       <c r="C1249" s="2"/>
@@ -18684,7 +18684,7 @@
       <c r="H1249" s="4"/>
       <c r="I1249" s="5"/>
     </row>
-    <row r="1250" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1250" s="3"/>
       <c r="B1250" s="2"/>
       <c r="C1250" s="2"/>
@@ -18695,7 +18695,7 @@
       <c r="H1250" s="4"/>
       <c r="I1250" s="5"/>
     </row>
-    <row r="1251" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1251" s="3"/>
       <c r="B1251" s="2"/>
       <c r="C1251" s="2"/>
@@ -18881,7 +18881,7 @@
       <c r="H1264" s="4"/>
       <c r="I1264" s="5"/>
     </row>
-    <row r="1265" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1265" s="3"/>
       <c r="B1265" s="2">
         <v>219</v>
@@ -18908,7 +18908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1266" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1266" s="3"/>
       <c r="B1266" s="2"/>
       <c r="C1266" s="2"/>
@@ -18919,7 +18919,7 @@
       <c r="H1266" s="4"/>
       <c r="I1266" s="5"/>
     </row>
-    <row r="1267" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1267" s="3"/>
       <c r="B1267" s="2"/>
       <c r="C1267" s="2"/>
@@ -18930,7 +18930,7 @@
       <c r="H1267" s="4"/>
       <c r="I1267" s="5"/>
     </row>
-    <row r="1268" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1268" s="3"/>
       <c r="B1268" s="2"/>
       <c r="C1268" s="2"/>
@@ -19444,7 +19444,7 @@
       <c r="H1305" s="4"/>
       <c r="I1305" s="5"/>
     </row>
-    <row r="1306" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1306" s="3"/>
       <c r="B1306" s="2">
         <v>226</v>
@@ -19471,7 +19471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1307" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1307" s="3"/>
       <c r="B1307" s="2"/>
       <c r="C1307" s="2"/>
@@ -19482,7 +19482,7 @@
       <c r="H1307" s="4"/>
       <c r="I1307" s="5"/>
     </row>
-    <row r="1308" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1308" s="3"/>
       <c r="B1308" s="2"/>
       <c r="C1308" s="2"/>
@@ -19493,7 +19493,7 @@
       <c r="H1308" s="4"/>
       <c r="I1308" s="5"/>
     </row>
-    <row r="1309" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1309" s="3"/>
       <c r="B1309" s="2"/>
       <c r="C1309" s="2"/>
@@ -20411,7 +20411,7 @@
       <c r="H1376" s="4"/>
       <c r="I1376" s="5"/>
     </row>
-    <row r="1377" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1377" s="3"/>
       <c r="B1377" s="2">
         <v>238</v>
@@ -20438,7 +20438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1378" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1378" s="3"/>
       <c r="B1378" s="2"/>
       <c r="C1378" s="2"/>
@@ -20449,7 +20449,7 @@
       <c r="H1378" s="4"/>
       <c r="I1378" s="5"/>
     </row>
-    <row r="1379" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1379" s="3"/>
       <c r="B1379" s="2"/>
       <c r="C1379" s="2"/>
@@ -20460,7 +20460,7 @@
       <c r="H1379" s="4"/>
       <c r="I1379" s="5"/>
     </row>
-    <row r="1380" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1380" s="3"/>
       <c r="B1380" s="2"/>
       <c r="C1380" s="2"/>
@@ -20509,7 +20509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1383" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1383" s="3"/>
       <c r="B1383" s="2"/>
       <c r="C1383" s="2"/>
@@ -20520,7 +20520,7 @@
       <c r="H1383" s="4"/>
       <c r="I1383" s="5"/>
     </row>
-    <row r="1384" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1384" s="3"/>
       <c r="B1384" s="2"/>
       <c r="C1384" s="2"/>
@@ -20531,7 +20531,7 @@
       <c r="H1384" s="4"/>
       <c r="I1384" s="5"/>
     </row>
-    <row r="1385" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1385" s="3"/>
       <c r="B1385" s="2"/>
       <c r="C1385" s="2"/>
@@ -20580,7 +20580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1388" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1388" s="3"/>
       <c r="B1388" s="2"/>
       <c r="C1388" s="2"/>
@@ -20591,7 +20591,7 @@
       <c r="H1388" s="4"/>
       <c r="I1388" s="5"/>
     </row>
-    <row r="1389" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1389" s="3"/>
       <c r="B1389" s="2"/>
       <c r="C1389" s="2"/>
@@ -20602,7 +20602,7 @@
       <c r="H1389" s="4"/>
       <c r="I1389" s="5"/>
     </row>
-    <row r="1390" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1390" s="3"/>
       <c r="B1390" s="2"/>
       <c r="C1390" s="2"/>
@@ -20651,7 +20651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1393" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1393" s="3"/>
       <c r="B1393" s="2"/>
       <c r="C1393" s="2"/>
@@ -20662,7 +20662,7 @@
       <c r="H1393" s="4"/>
       <c r="I1393" s="5"/>
     </row>
-    <row r="1394" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1394" s="3"/>
       <c r="B1394" s="2"/>
       <c r="C1394" s="2"/>
@@ -20673,7 +20673,7 @@
       <c r="H1394" s="4"/>
       <c r="I1394" s="5"/>
     </row>
-    <row r="1395" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1395" s="3"/>
       <c r="B1395" s="2"/>
       <c r="C1395" s="2"/>
@@ -20722,7 +20722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1398" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1398" s="3"/>
       <c r="B1398" s="2"/>
       <c r="C1398" s="2"/>
@@ -20733,7 +20733,7 @@
       <c r="H1398" s="4"/>
       <c r="I1398" s="5"/>
     </row>
-    <row r="1399" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1399" s="3"/>
       <c r="B1399" s="2"/>
       <c r="C1399" s="2"/>
@@ -20744,7 +20744,7 @@
       <c r="H1399" s="4"/>
       <c r="I1399" s="5"/>
     </row>
-    <row r="1400" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1400" s="3"/>
       <c r="B1400" s="2"/>
       <c r="C1400" s="2"/>
@@ -20930,7 +20930,7 @@
       <c r="H1413" s="4"/>
       <c r="I1413" s="5"/>
     </row>
-    <row r="1414" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1414" s="3"/>
       <c r="B1414" s="2">
         <v>245</v>
@@ -20957,7 +20957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1415" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1415" s="3"/>
       <c r="B1415" s="2"/>
       <c r="C1415" s="2"/>
@@ -20968,7 +20968,7 @@
       <c r="H1415" s="4"/>
       <c r="I1415" s="5"/>
     </row>
-    <row r="1416" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1416" s="3"/>
       <c r="B1416" s="2"/>
       <c r="C1416" s="2"/>
@@ -20979,7 +20979,7 @@
       <c r="H1416" s="4"/>
       <c r="I1416" s="5"/>
     </row>
-    <row r="1417" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1417" s="3"/>
       <c r="B1417" s="2"/>
       <c r="C1417" s="2"/>
@@ -21028,7 +21028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1420" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1420" s="3"/>
       <c r="B1420" s="2"/>
       <c r="C1420" s="2"/>
@@ -21039,7 +21039,7 @@
       <c r="H1420" s="4"/>
       <c r="I1420" s="5"/>
     </row>
-    <row r="1421" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1421" s="3"/>
       <c r="B1421" s="2"/>
       <c r="C1421" s="2"/>
@@ -21050,7 +21050,7 @@
       <c r="H1421" s="4"/>
       <c r="I1421" s="5"/>
     </row>
-    <row r="1422" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1422" s="3"/>
       <c r="B1422" s="2"/>
       <c r="C1422" s="2"/>
@@ -21099,7 +21099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1425" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1425" s="3"/>
       <c r="B1425" s="2"/>
       <c r="C1425" s="2"/>
@@ -21110,7 +21110,7 @@
       <c r="H1425" s="4"/>
       <c r="I1425" s="5"/>
     </row>
-    <row r="1426" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1426" s="3"/>
       <c r="B1426" s="2"/>
       <c r="C1426" s="2"/>
@@ -21121,7 +21121,7 @@
       <c r="H1426" s="4"/>
       <c r="I1426" s="5"/>
     </row>
-    <row r="1427" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1427" s="3"/>
       <c r="B1427" s="2"/>
       <c r="C1427" s="2"/>
@@ -21132,7 +21132,7 @@
       <c r="H1427" s="4"/>
       <c r="I1427" s="5"/>
     </row>
-    <row r="1428" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1428" s="3"/>
       <c r="B1428" s="2"/>
       <c r="C1428" s="2"/>
@@ -21225,7 +21225,7 @@
       <c r="H1434" s="4"/>
       <c r="I1434" s="5"/>
     </row>
-    <row r="1435" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1435" s="3"/>
       <c r="B1435" s="2">
         <v>249</v>
@@ -21252,7 +21252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1436" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1436" s="3"/>
       <c r="B1436" s="2"/>
       <c r="C1436" s="2"/>
@@ -21263,7 +21263,7 @@
       <c r="H1436" s="4"/>
       <c r="I1436" s="5"/>
     </row>
-    <row r="1437" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1437" s="3"/>
       <c r="B1437" s="2"/>
       <c r="C1437" s="2"/>
@@ -21274,7 +21274,7 @@
       <c r="H1437" s="4"/>
       <c r="I1437" s="5"/>
     </row>
-    <row r="1438" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1438" s="3"/>
       <c r="B1438" s="2"/>
       <c r="C1438" s="2"/>
@@ -21323,7 +21323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1441" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1441" s="3"/>
       <c r="B1441" s="2"/>
       <c r="C1441" s="2"/>
@@ -21334,7 +21334,7 @@
       <c r="H1441" s="4"/>
       <c r="I1441" s="5"/>
     </row>
-    <row r="1442" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1442" s="3"/>
       <c r="B1442" s="2"/>
       <c r="C1442" s="2"/>
@@ -21345,7 +21345,7 @@
       <c r="H1442" s="4"/>
       <c r="I1442" s="5"/>
     </row>
-    <row r="1443" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1443" s="3"/>
       <c r="B1443" s="2"/>
       <c r="C1443" s="2"/>
@@ -21394,7 +21394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1446" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1446" s="3"/>
       <c r="B1446" s="2"/>
       <c r="C1446" s="2"/>
@@ -21405,7 +21405,7 @@
       <c r="H1446" s="4"/>
       <c r="I1446" s="5"/>
     </row>
-    <row r="1447" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1447" s="3"/>
       <c r="B1447" s="2"/>
       <c r="C1447" s="2"/>
@@ -21416,7 +21416,7 @@
       <c r="H1447" s="4"/>
       <c r="I1447" s="5"/>
     </row>
-    <row r="1448" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1448" s="3"/>
       <c r="B1448" s="2"/>
       <c r="C1448" s="2"/>
@@ -21465,7 +21465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1451" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1451" s="3"/>
       <c r="B1451" s="2"/>
       <c r="C1451" s="2"/>
@@ -21476,7 +21476,7 @@
       <c r="H1451" s="4"/>
       <c r="I1451" s="5"/>
     </row>
-    <row r="1452" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1452" s="3"/>
       <c r="B1452" s="2"/>
       <c r="C1452" s="2"/>
@@ -21487,7 +21487,7 @@
       <c r="H1452" s="4"/>
       <c r="I1452" s="5"/>
     </row>
-    <row r="1453" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1453" s="3"/>
       <c r="B1453" s="2"/>
       <c r="C1453" s="2"/>
@@ -21837,7 +21837,7 @@
       <c r="H1478" s="4"/>
       <c r="I1478" s="5"/>
     </row>
-    <row r="1479" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1479" s="3"/>
       <c r="B1479" s="2">
         <v>257</v>
@@ -21864,7 +21864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1480" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1480" s="3"/>
       <c r="B1480" s="2"/>
       <c r="C1480" s="2"/>
@@ -21886,7 +21886,7 @@
       <c r="H1481" s="4"/>
       <c r="I1481" s="5"/>
     </row>
-    <row r="1482" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1482" s="3"/>
       <c r="B1482" s="2"/>
       <c r="C1482" s="2"/>
@@ -23220,7 +23220,7 @@
       <c r="H1579" s="4"/>
       <c r="I1579" s="5"/>
     </row>
-    <row r="1580" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1580" s="3"/>
       <c r="B1580" s="2">
         <v>274</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1581" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1581" s="3"/>
       <c r="B1581" s="2"/>
       <c r="C1581" s="2"/>
@@ -23258,7 +23258,7 @@
       <c r="H1581" s="4"/>
       <c r="I1581" s="5"/>
     </row>
-    <row r="1582" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1582" s="3"/>
       <c r="B1582" s="2"/>
       <c r="C1582" s="2"/>
@@ -23269,7 +23269,7 @@
       <c r="H1582" s="4"/>
       <c r="I1582" s="5"/>
     </row>
-    <row r="1583" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1583" s="3"/>
       <c r="B1583" s="2"/>
       <c r="C1583" s="2"/>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1586" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1586" s="3"/>
       <c r="B1586" s="2"/>
       <c r="C1586" s="2"/>
@@ -23329,7 +23329,7 @@
       <c r="H1586" s="4"/>
       <c r="I1586" s="5"/>
     </row>
-    <row r="1587" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1587" s="3"/>
       <c r="B1587" s="2"/>
       <c r="C1587" s="2"/>
@@ -23340,7 +23340,7 @@
       <c r="H1587" s="4"/>
       <c r="I1587" s="5"/>
     </row>
-    <row r="1588" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1588" s="3"/>
       <c r="B1588" s="2"/>
       <c r="C1588" s="2"/>
@@ -23389,7 +23389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1591" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1591" s="3"/>
       <c r="B1591" s="2"/>
       <c r="C1591" s="2"/>
@@ -23400,7 +23400,7 @@
       <c r="H1591" s="4"/>
       <c r="I1591" s="5"/>
     </row>
-    <row r="1592" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1592" s="3"/>
       <c r="B1592" s="2"/>
       <c r="C1592" s="2"/>
@@ -23411,7 +23411,7 @@
       <c r="H1592" s="4"/>
       <c r="I1592" s="5"/>
     </row>
-    <row r="1593" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1593" s="3"/>
       <c r="B1593" s="2"/>
       <c r="C1593" s="2"/>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1596" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1596" s="3"/>
       <c r="B1596" s="2"/>
       <c r="C1596" s="2"/>
@@ -23471,7 +23471,7 @@
       <c r="H1596" s="4"/>
       <c r="I1596" s="5"/>
     </row>
-    <row r="1597" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1597" s="3"/>
       <c r="B1597" s="2"/>
       <c r="C1597" s="2"/>
@@ -23482,7 +23482,7 @@
       <c r="H1597" s="4"/>
       <c r="I1597" s="5"/>
     </row>
-    <row r="1598" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1598" s="3"/>
       <c r="B1598" s="2"/>
       <c r="C1598" s="2"/>
@@ -23531,7 +23531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1601" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1601" s="3"/>
       <c r="B1601" s="2"/>
       <c r="C1601" s="2"/>
@@ -23542,7 +23542,7 @@
       <c r="H1601" s="4"/>
       <c r="I1601" s="5"/>
     </row>
-    <row r="1602" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1602" s="3"/>
       <c r="B1602" s="2"/>
       <c r="C1602" s="2"/>
@@ -23553,7 +23553,7 @@
       <c r="H1602" s="4"/>
       <c r="I1602" s="5"/>
     </row>
-    <row r="1603" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1603" s="3"/>
       <c r="B1603" s="2"/>
       <c r="C1603" s="2"/>
@@ -23602,7 +23602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1606" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1606" s="3"/>
       <c r="B1606" s="2"/>
       <c r="C1606" s="2"/>
@@ -23613,7 +23613,7 @@
       <c r="H1606" s="4"/>
       <c r="I1606" s="5"/>
     </row>
-    <row r="1607" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1607" s="3"/>
       <c r="B1607" s="2"/>
       <c r="C1607" s="2"/>
@@ -23624,7 +23624,7 @@
       <c r="H1607" s="4"/>
       <c r="I1607" s="5"/>
     </row>
-    <row r="1608" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1608" s="3"/>
       <c r="B1608" s="2"/>
       <c r="C1608" s="2"/>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1611" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1611" s="3"/>
       <c r="B1611" s="2"/>
       <c r="C1611" s="2"/>
@@ -23684,7 +23684,7 @@
       <c r="H1611" s="4"/>
       <c r="I1611" s="5"/>
     </row>
-    <row r="1612" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1612" s="3"/>
       <c r="B1612" s="2"/>
       <c r="C1612" s="2"/>
@@ -23695,7 +23695,7 @@
       <c r="H1612" s="4"/>
       <c r="I1612" s="5"/>
     </row>
-    <row r="1613" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1613" s="3"/>
       <c r="B1613" s="2"/>
       <c r="C1613" s="2"/>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1616" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1616" s="3"/>
       <c r="B1616" s="2"/>
       <c r="C1616" s="2"/>
@@ -23755,7 +23755,7 @@
       <c r="H1616" s="4"/>
       <c r="I1616" s="5"/>
     </row>
-    <row r="1617" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1617" s="3"/>
       <c r="B1617" s="2"/>
       <c r="C1617" s="2"/>
@@ -23766,7 +23766,7 @@
       <c r="H1617" s="4"/>
       <c r="I1617" s="5"/>
     </row>
-    <row r="1618" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1618" s="3"/>
       <c r="B1618" s="2"/>
       <c r="C1618" s="2"/>
@@ -23801,7 +23801,7 @@
       <c r="H1620" s="2"/>
       <c r="I1620" s="2"/>
     </row>
-    <row r="1621" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1621" s="3"/>
       <c r="B1621" s="2">
         <v>282</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1622" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1622" s="3"/>
       <c r="B1622" s="2"/>
       <c r="C1622" s="2"/>
@@ -23839,7 +23839,7 @@
       <c r="H1622" s="4"/>
       <c r="I1622" s="5"/>
     </row>
-    <row r="1623" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1623" s="3"/>
       <c r="B1623" s="2"/>
       <c r="C1623" s="2"/>
@@ -23850,7 +23850,7 @@
       <c r="H1623" s="4"/>
       <c r="I1623" s="5"/>
     </row>
-    <row r="1624" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1624" s="3"/>
       <c r="B1624" s="2"/>
       <c r="C1624" s="2"/>
@@ -23861,7 +23861,7 @@
       <c r="H1624" s="4"/>
       <c r="I1624" s="5"/>
     </row>
-    <row r="1625" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1625" s="3"/>
       <c r="B1625" s="2"/>
       <c r="C1625" s="2"/>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1627" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1627" s="3"/>
       <c r="B1627" s="2"/>
       <c r="C1627" s="2"/>
@@ -23910,7 +23910,7 @@
       <c r="H1627" s="4"/>
       <c r="I1627" s="5"/>
     </row>
-    <row r="1628" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1628" s="3"/>
       <c r="B1628" s="2"/>
       <c r="C1628" s="2"/>
@@ -23921,7 +23921,7 @@
       <c r="H1628" s="4"/>
       <c r="I1628" s="5"/>
     </row>
-    <row r="1629" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1629" s="3"/>
       <c r="B1629" s="2"/>
       <c r="C1629" s="2"/>
@@ -23932,7 +23932,7 @@
       <c r="H1629" s="4"/>
       <c r="I1629" s="5"/>
     </row>
-    <row r="1630" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1630" s="3"/>
       <c r="B1630" s="2"/>
       <c r="C1630" s="2"/>
@@ -23970,7 +23970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1632" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1632" s="3"/>
       <c r="B1632" s="2"/>
       <c r="C1632" s="2"/>
@@ -23981,7 +23981,7 @@
       <c r="H1632" s="4"/>
       <c r="I1632" s="5"/>
     </row>
-    <row r="1633" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1633" s="3"/>
       <c r="B1633" s="2"/>
       <c r="C1633" s="2"/>
@@ -23992,7 +23992,7 @@
       <c r="H1633" s="4"/>
       <c r="I1633" s="5"/>
     </row>
-    <row r="1634" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1634" s="3"/>
       <c r="B1634" s="2"/>
       <c r="C1634" s="2"/>
@@ -24003,7 +24003,7 @@
       <c r="H1634" s="4"/>
       <c r="I1634" s="5"/>
     </row>
-    <row r="1635" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1635" s="3"/>
       <c r="B1635" s="2"/>
       <c r="C1635" s="2"/>
@@ -24041,7 +24041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1637" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1637" s="3"/>
       <c r="B1637" s="2"/>
       <c r="C1637" s="2"/>
@@ -24052,7 +24052,7 @@
       <c r="H1637" s="4"/>
       <c r="I1637" s="5"/>
     </row>
-    <row r="1638" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1638" s="3"/>
       <c r="B1638" s="2"/>
       <c r="C1638" s="2"/>
@@ -24063,7 +24063,7 @@
       <c r="H1638" s="4"/>
       <c r="I1638" s="5"/>
     </row>
-    <row r="1639" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1639" s="3"/>
       <c r="B1639" s="2"/>
       <c r="C1639" s="2"/>
@@ -24074,7 +24074,7 @@
       <c r="H1639" s="4"/>
       <c r="I1639" s="5"/>
     </row>
-    <row r="1640" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1640" s="3"/>
       <c r="B1640" s="2"/>
       <c r="C1640" s="2"/>
@@ -24112,7 +24112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1642" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1642" s="3"/>
       <c r="B1642" s="2"/>
       <c r="C1642" s="2"/>
@@ -24123,7 +24123,7 @@
       <c r="H1642" s="4"/>
       <c r="I1642" s="5"/>
     </row>
-    <row r="1643" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1643" s="3"/>
       <c r="B1643" s="2"/>
       <c r="C1643" s="2"/>
@@ -24134,7 +24134,7 @@
       <c r="H1643" s="4"/>
       <c r="I1643" s="5"/>
     </row>
-    <row r="1644" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1644" s="3"/>
       <c r="B1644" s="2"/>
       <c r="C1644" s="2"/>
@@ -24145,7 +24145,7 @@
       <c r="H1644" s="4"/>
       <c r="I1644" s="5"/>
     </row>
-    <row r="1645" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1645" s="3"/>
       <c r="B1645" s="2"/>
       <c r="C1645" s="2"/>
@@ -24169,7 +24169,7 @@
       <c r="H1646" s="2"/>
       <c r="I1646" s="2"/>
     </row>
-    <row r="1647" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1647" s="3"/>
       <c r="B1647" s="2">
         <v>287</v>
